--- a/New_codes/Results/results_sensitivity.xlsx
+++ b/New_codes/Results/results_sensitivity.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanvirkaisar/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uscedu-my.sharepoint.com/personal/kaisar_usc_edu/Documents/CVRP/Codes/New_codes/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA60AF2-19E8-B44C-BFDF-C484AFD43B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{7FA60AF2-19E8-B44C-BFDF-C484AFD43B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3556BAE8-2297-4946-8989-5161F0F20DBE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19880" xr2:uid="{D96263A1-7290-E548-B503-94A7A6E2072F}"/>
   </bookViews>
@@ -373,10 +373,10 @@
     <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -388,16 +388,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,7 +737,7 @@
   <dimension ref="A1:Z23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" x14ac:dyDescent="0.2"/>
@@ -749,7 +749,7 @@
     <col min="5" max="5" width="14.5" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.5" style="4" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="4" customWidth="1"/>
     <col min="9" max="9" width="13.1640625" style="4" customWidth="1"/>
     <col min="10" max="10" width="12.5" style="4" customWidth="1"/>
     <col min="11" max="12" width="11" style="4" bestFit="1" customWidth="1"/>
@@ -765,10 +765,10 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="19"/>
+      <c r="C1" s="17"/>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
@@ -825,7 +825,7 @@
       <c r="A2" s="13">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -882,11 +882,11 @@
       <c r="T2" s="5">
         <v>43</v>
       </c>
-      <c r="Z2" s="12"/>
+      <c r="Z2" s="19"/>
     </row>
     <row r="3" spans="1:26" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14"/>
-      <c r="B3" s="11"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="1" t="s">
         <v>27</v>
       </c>
@@ -941,11 +941,11 @@
       <c r="T3" s="5">
         <v>22</v>
       </c>
-      <c r="Z3" s="12"/>
+      <c r="Z3" s="19"/>
     </row>
     <row r="4" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
-      <c r="B4" s="11"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="1" t="s">
         <v>42</v>
       </c>
@@ -1000,11 +1000,11 @@
       <c r="T4" s="5">
         <v>84</v>
       </c>
-      <c r="Z4" s="12"/>
+      <c r="Z4" s="19"/>
     </row>
     <row r="5" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14"/>
-      <c r="B5" s="11"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1059,11 +1059,11 @@
       <c r="T5" s="5">
         <v>160</v>
       </c>
-      <c r="Z5" s="12"/>
+      <c r="Z5" s="19"/>
     </row>
     <row r="6" spans="1:26" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="14"/>
-      <c r="B6" s="11"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="6" t="s">
         <v>40</v>
       </c>
@@ -1118,11 +1118,11 @@
       <c r="T6" s="5">
         <v>55</v>
       </c>
-      <c r="Z6" s="12"/>
+      <c r="Z6" s="19"/>
     </row>
     <row r="7" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
-      <c r="B7" s="11"/>
+      <c r="B7" s="18"/>
       <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
@@ -1177,11 +1177,11 @@
       <c r="T7" s="5">
         <v>187</v>
       </c>
-      <c r="Z7" s="12"/>
+      <c r="Z7" s="19"/>
     </row>
     <row r="8" spans="1:26" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1241,7 +1241,7 @@
     </row>
     <row r="9" spans="1:26" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
-      <c r="B9" s="11"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="1" t="s">
         <v>38</v>
       </c>
@@ -1299,7 +1299,7 @@
     </row>
     <row r="10" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="18" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1359,7 +1359,7 @@
     </row>
     <row r="11" spans="1:26" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="14"/>
-      <c r="B11" s="11"/>
+      <c r="B11" s="18"/>
       <c r="C11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1417,7 +1417,7 @@
     </row>
     <row r="12" spans="1:26" ht="23" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1477,7 +1477,7 @@
     </row>
     <row r="13" spans="1:26" ht="23" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
-      <c r="B13" s="11"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="1" t="s">
         <v>43</v>
       </c>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="14" spans="1:26" ht="23" x14ac:dyDescent="0.2">
       <c r="A14" s="14"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="18" t="s">
         <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1595,7 +1595,7 @@
     </row>
     <row r="15" spans="1:26" ht="23" x14ac:dyDescent="0.2">
       <c r="A15" s="14"/>
-      <c r="B15" s="11"/>
+      <c r="B15" s="18"/>
       <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
@@ -1614,7 +1614,7 @@
       <c r="H15" s="10">
         <v>0</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="11">
         <v>0</v>
       </c>
       <c r="J15" s="10">
@@ -1653,7 +1653,7 @@
     </row>
     <row r="16" spans="1:26" ht="23" x14ac:dyDescent="0.2">
       <c r="A16" s="14"/>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1713,7 +1713,7 @@
     </row>
     <row r="17" spans="1:20" ht="23" x14ac:dyDescent="0.2">
       <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
+      <c r="B17" s="12"/>
       <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
